--- a/CloudKitchen-artifacts/Routes.xlsx
+++ b/CloudKitchen-artifacts/Routes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t xml:space="preserve">Operation</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">function</t>
   </si>
   <si>
+    <t xml:space="preserve">Components</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login </t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">for admin to login</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin-Login</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dashboard</t>
   </si>
   <si>
@@ -58,18 +64,27 @@
     <t xml:space="preserve">to fetch all orders.</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin-view-orders</t>
+  </si>
+  <si>
     <t xml:space="preserve">/viewRestaurants</t>
   </si>
   <si>
     <t xml:space="preserve">to fetch all restaurants.</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin-view-restaurant</t>
+  </si>
+  <si>
     <t xml:space="preserve">/viewCustomers</t>
   </si>
   <si>
     <t xml:space="preserve">to fetch all customers.</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin-view-delivery-persons</t>
+  </si>
+  <si>
     <t xml:space="preserve">/viewDeliveryPersons</t>
   </si>
   <si>
@@ -118,18 +133,27 @@
     <t xml:space="preserve">delete delivery person.</t>
   </si>
   <si>
+    <t xml:space="preserve">*yellow marked component will be the component that will load first after login</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request Type</t>
   </si>
   <si>
     <t xml:space="preserve">Function</t>
   </si>
   <si>
+    <t xml:space="preserve">Component</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login</t>
   </si>
   <si>
     <t xml:space="preserve">for restaurants to login.</t>
   </si>
   <si>
+    <t xml:space="preserve">Restaurant-login</t>
+  </si>
+  <si>
     <t xml:space="preserve">Register</t>
   </si>
   <si>
@@ -142,6 +166,9 @@
     <t xml:space="preserve">for restaurants to register.</t>
   </si>
   <si>
+    <t xml:space="preserve">Restaurant-register</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food</t>
   </si>
   <si>
@@ -151,6 +178,9 @@
     <t xml:space="preserve">adds a food to the restaurants menu.</t>
   </si>
   <si>
+    <t xml:space="preserve">Restaurant-add-food</t>
+  </si>
+  <si>
     <t xml:space="preserve">/updateFood</t>
   </si>
   <si>
@@ -166,30 +196,48 @@
     <t xml:space="preserve">to update restaurants profile</t>
   </si>
   <si>
+    <t xml:space="preserve">Restaurant-update-profile</t>
+  </si>
+  <si>
     <t xml:space="preserve">/updateAmbience</t>
   </si>
   <si>
     <t xml:space="preserve">to upload ambience photos of restaurant.</t>
   </si>
   <si>
+    <t xml:space="preserve">Restaurant-ambient-photos</t>
+  </si>
+  <si>
     <t xml:space="preserve">/getOrders</t>
   </si>
   <si>
     <t xml:space="preserve">to display orders for that restaurant.</t>
   </si>
   <si>
+    <t xml:space="preserve">Restaurant-view-orders</t>
+  </si>
+  <si>
     <t xml:space="preserve">to change the state of orders.</t>
   </si>
   <si>
     <t xml:space="preserve">for dp to login.</t>
   </si>
   <si>
+    <t xml:space="preserve">Delivery-person-login</t>
+  </si>
+  <si>
     <t xml:space="preserve">for dp to register.</t>
   </si>
   <si>
+    <t xml:space="preserve">Delivery-person-register</t>
+  </si>
+  <si>
     <t xml:space="preserve">to display orders that have pending state.</t>
   </si>
   <si>
+    <t xml:space="preserve">Delivery-person-view-orders</t>
+  </si>
+  <si>
     <t xml:space="preserve">/pickedOrder</t>
   </si>
   <si>
@@ -205,6 +253,9 @@
     <t xml:space="preserve">to display all penalties.</t>
   </si>
   <si>
+    <t xml:space="preserve">Delivery-person-view-penalties</t>
+  </si>
+  <si>
     <t xml:space="preserve">/payPenalty</t>
   </si>
   <si>
@@ -214,21 +265,36 @@
     <t xml:space="preserve">to update dp profile.</t>
   </si>
   <si>
+    <t xml:space="preserve">Delivery-person-update-profile</t>
+  </si>
+  <si>
     <t xml:space="preserve">for customer to login.</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer-login</t>
+  </si>
+  <si>
     <t xml:space="preserve">for customer to register. </t>
   </si>
   <si>
+    <t xml:space="preserve">Customer-register</t>
+  </si>
+  <si>
     <t xml:space="preserve">to update customer profile.</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer-update-profile</t>
+  </si>
+  <si>
     <t xml:space="preserve">View Restaurants</t>
   </si>
   <si>
     <t xml:space="preserve">/viewRestaurant</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer-view-restaurant</t>
+  </si>
+  <si>
     <t xml:space="preserve">/filterRestaurant</t>
   </si>
   <si>
@@ -241,12 +307,18 @@
     <t xml:space="preserve">to fetch all details of restaurant with ambient images and foods.</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer-view-restaurant-detail</t>
+  </si>
+  <si>
     <t xml:space="preserve">View Orders</t>
   </si>
   <si>
     <t xml:space="preserve">to fetch all orders by that customer.</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer-view-orders</t>
+  </si>
+  <si>
     <t xml:space="preserve">/cancelOrders</t>
   </si>
   <si>
@@ -260,6 +332,9 @@
   </si>
   <si>
     <t xml:space="preserve">to place the order for that customer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer-place-order</t>
   </si>
   <si>
     <t xml:space="preserve">/updateAddress</t>
@@ -275,11 +350,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -301,12 +377,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -314,9 +392,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +418,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF38"/>
       </patternFill>
     </fill>
     <fill>
@@ -388,7 +485,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,11 +518,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,15 +542,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,11 +566,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,7 +594,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF38"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -502,7 +615,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -542,18 +655,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.62"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,134 +683,161 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:I11"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -712,18 +853,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,131 +873,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E10:I10"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -868,18 +1043,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.62"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,117 +1063,147 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" s="17" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" s="21" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>62</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:I9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1010,18 +1216,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,159 +1236,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>95</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" s="11" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>78</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>100</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>80</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E12:I12"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/CloudKitchen-artifacts/Routes.xlsx
+++ b/CloudKitchen-artifacts/Routes.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project Artifacts- Project Cloud Kitchen\CloudKitchen\CloudKitchen-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D85E3B-8807-47FF-80B9-96076A441E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Restaurant" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Delivery Person" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Customer" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Admin" sheetId="1" r:id="rId1"/>
+    <sheet name="Restaurant" sheetId="2" r:id="rId2"/>
+    <sheet name="Delivery Person" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,319 +30,319 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
-    <t xml:space="preserve">Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Components</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Request type</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Components</t>
   </si>
   <si>
     <t xml:space="preserve">Login </t>
   </si>
   <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for admin to login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin-Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/viewOrders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fetch all orders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin-view-orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/viewRestaurants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fetch all restaurants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin-view-restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/viewCustomers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fetch all customers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin-view-delivery-persons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/viewDeliveryPersons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fetch all delivery persons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/changeOrderState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change state of order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/deleteCustomer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete customer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/deleteRestaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete restaurants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery Person</t>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>for admin to login</t>
+  </si>
+  <si>
+    <t>Admin-Login</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>/viewOrders</t>
+  </si>
+  <si>
+    <t>to fetch all orders.</t>
+  </si>
+  <si>
+    <t>Admin-view-orders</t>
+  </si>
+  <si>
+    <t>/viewRestaurants</t>
+  </si>
+  <si>
+    <t>to fetch all restaurants.</t>
+  </si>
+  <si>
+    <t>Admin-view-restaurant</t>
+  </si>
+  <si>
+    <t>/viewCustomers</t>
+  </si>
+  <si>
+    <t>to fetch all customers.</t>
+  </si>
+  <si>
+    <t>Admin-view-delivery-persons</t>
+  </si>
+  <si>
+    <t>/viewDeliveryPersons</t>
+  </si>
+  <si>
+    <t>to fetch all delivery persons.</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/changeOrderState</t>
+  </si>
+  <si>
+    <t>change state of order.</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/deleteCustomer</t>
+  </si>
+  <si>
+    <t>delete customer.</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>/deleteRestaurant</t>
+  </si>
+  <si>
+    <t>delete restaurants.</t>
+  </si>
+  <si>
+    <t>Delivery Person</t>
   </si>
   <si>
     <t xml:space="preserve">/deleteDeliveryPerson </t>
   </si>
   <si>
-    <t xml:space="preserve">delete delivery person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*yellow marked component will be the component that will load first after login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for restaurants to login.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant-login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for restaurants to register.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant-register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/addFood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adds a food to the restaurants menu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant-add-food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/updateFood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to update food details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/updateProfile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to update restaurants profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant-update-profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/updateAmbience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to upload ambience photos of restaurant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant-ambient-photos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/getOrders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to display orders for that restaurant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant-view-orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to change the state of orders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for dp to login.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery-person-login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for dp to register.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery-person-register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to display orders that have pending state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery-person-view-orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/pickedOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to allot the order for that dp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/getPenalties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to display all penalties.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery-person-view-penalties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/payPenalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to pay for a penality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to update dp profile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery-person-update-profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for customer to login.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer-login</t>
+    <t>delete delivery person.</t>
+  </si>
+  <si>
+    <t>*yellow marked component will be the component that will load first after login</t>
+  </si>
+  <si>
+    <t>Request Type</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>for restaurants to login.</t>
+  </si>
+  <si>
+    <t>Restaurant-login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/register</t>
+  </si>
+  <si>
+    <t>for restaurants to register.</t>
+  </si>
+  <si>
+    <t>Restaurant-register</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>/addFood</t>
+  </si>
+  <si>
+    <t>adds a food to the restaurants menu.</t>
+  </si>
+  <si>
+    <t>Restaurant-add-food</t>
+  </si>
+  <si>
+    <t>/updateFood</t>
+  </si>
+  <si>
+    <t>to update food details.</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>/updateProfile</t>
+  </si>
+  <si>
+    <t>to update restaurants profile</t>
+  </si>
+  <si>
+    <t>Restaurant-update-profile</t>
+  </si>
+  <si>
+    <t>/updateAmbience</t>
+  </si>
+  <si>
+    <t>to upload ambience photos of restaurant.</t>
+  </si>
+  <si>
+    <t>Restaurant-ambient-photos</t>
+  </si>
+  <si>
+    <t>/getOrders</t>
+  </si>
+  <si>
+    <t>to display orders for that restaurant.</t>
+  </si>
+  <si>
+    <t>Restaurant-view-orders</t>
+  </si>
+  <si>
+    <t>to change the state of orders.</t>
+  </si>
+  <si>
+    <t>for dp to login.</t>
+  </si>
+  <si>
+    <t>Delivery-person-login</t>
+  </si>
+  <si>
+    <t>for dp to register.</t>
+  </si>
+  <si>
+    <t>Delivery-person-register</t>
+  </si>
+  <si>
+    <t>to display orders that have pending state.</t>
+  </si>
+  <si>
+    <t>Delivery-person-view-orders</t>
+  </si>
+  <si>
+    <t>/pickedOrder</t>
+  </si>
+  <si>
+    <t>to allot the order for that dp.</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>/getPenalties</t>
+  </si>
+  <si>
+    <t>to display all penalties.</t>
+  </si>
+  <si>
+    <t>Delivery-person-view-penalties</t>
+  </si>
+  <si>
+    <t>/payPenalty</t>
+  </si>
+  <si>
+    <t>to pay for a penality.</t>
+  </si>
+  <si>
+    <t>to update dp profile.</t>
+  </si>
+  <si>
+    <t>Delivery-person-update-profile</t>
+  </si>
+  <si>
+    <t>for customer to login.</t>
+  </si>
+  <si>
+    <t>Customer-login</t>
   </si>
   <si>
     <t xml:space="preserve">for customer to register. </t>
   </si>
   <si>
-    <t xml:space="preserve">Customer-register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to update customer profile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer-update-profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Restaurants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/viewRestaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer-view-restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/filterRestaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fetch all restaurants that match a keyword.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/detailsOfRestaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fetch all details of restaurant with ambient images and foods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer-view-restaurant-detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to fetch all orders by that customer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer-view-orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/cancelOrders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to change state of that order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/placeOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to place the order for that customer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer-place-order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/updateAddress</t>
+    <t>Customer-register</t>
+  </si>
+  <si>
+    <t>to update customer profile.</t>
+  </si>
+  <si>
+    <t>Customer-update-profile</t>
+  </si>
+  <si>
+    <t>View Restaurants</t>
+  </si>
+  <si>
+    <t>/viewRestaurant</t>
+  </si>
+  <si>
+    <t>Customer-view-restaurant</t>
+  </si>
+  <si>
+    <t>/filterRestaurant</t>
+  </si>
+  <si>
+    <t>to fetch all restaurants that match a keyword.</t>
+  </si>
+  <si>
+    <t>/detailsOfRestaurant</t>
+  </si>
+  <si>
+    <t>to fetch all details of restaurant with ambient images and foods.</t>
+  </si>
+  <si>
+    <t>Customer-view-restaurant-detail</t>
+  </si>
+  <si>
+    <t>View Orders</t>
+  </si>
+  <si>
+    <t>to fetch all orders by that customer.</t>
+  </si>
+  <si>
+    <t>Customer-view-orders</t>
+  </si>
+  <si>
+    <t>/cancelOrders</t>
+  </si>
+  <si>
+    <t>to change state of that order.</t>
+  </si>
+  <si>
+    <t>Place Order</t>
+  </si>
+  <si>
+    <t>/placeOrder</t>
+  </si>
+  <si>
+    <t>to place the order for that customer.</t>
+  </si>
+  <si>
+    <t>Customer-place-order</t>
+  </si>
+  <si>
+    <t>/updateAddress</t>
   </si>
   <si>
     <t xml:space="preserve">to update address for delivery. </t>
@@ -346,11 +351,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,37 +360,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -407,7 +394,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,9 +437,15 @@
         <bgColor rgb="FFFFFF6D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -460,133 +453,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -645,32 +573,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.62"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,79 +933,79 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -779,11 +1015,11 @@
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -793,11 +1029,11 @@
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -807,11 +1043,11 @@
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -821,27 +1057,26 @@
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E11:I11"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -849,26 +1084,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.08"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +1117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -895,48 +1127,48 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -946,11 +1178,11 @@
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -960,48 +1192,48 @@
       <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1011,27 +1243,26 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E10:I10"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1039,26 +1270,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.62"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1085,48 +1313,48 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,11 +1364,11 @@
       <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -1150,14 +1378,14 @@
       <c r="C6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1167,11 +1395,11 @@
       <c r="C7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1181,30 +1409,29 @@
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E9:I9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1212,26 +1439,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.08"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1258,31 +1482,31 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -1292,79 +1516,79 @@
       <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" s="13" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -1374,28 +1598,28 @@
       <c r="C9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" s="13" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
@@ -1405,27 +1629,26 @@
       <c r="C11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E12:I12"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CloudKitchen-artifacts/Routes.xlsx
+++ b/CloudKitchen-artifacts/Routes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
@@ -420,7 +420,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,13 +430,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
@@ -448,13 +448,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5429"/>
         <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
@@ -510,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -551,7 +557,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,7 +569,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,14 +589,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,7 +597,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -591,7 +605,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -599,7 +613,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,7 +629,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,7 +691,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF5429"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -702,7 +716,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
@@ -896,11 +910,11 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
@@ -933,7 +947,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -947,10 +961,10 @@
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -960,20 +974,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="15" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1025,37 +1039,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="15" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="15" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1077,7 +1091,7 @@
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1086,10 +1100,10 @@
       <c r="D11" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="9" t="s">
@@ -1121,11 +1135,11 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
@@ -1158,7 +1172,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -1172,10 +1186,10 @@
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -1185,20 +1199,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="26" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1298,7 +1312,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
@@ -1345,7 +1359,7 @@
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1392,51 +1406,51 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="true" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+    <row r="6" s="15" customFormat="true" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="15" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="15" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1454,20 +1468,20 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="15" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>109</v>
       </c>
     </row>

--- a/CloudKitchen-artifacts/Routes.xlsx
+++ b/CloudKitchen-artifacts/Routes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project Artifacts- Project Cloud Kitchen\CloudKitchen\CloudKitchen-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D85E3B-8807-47FF-80B9-96076A441E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430E408-DB22-4C66-AFC0-3DF754AA389F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19260" yWindow="2340" windowWidth="16200" windowHeight="9360" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,7 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -503,12 +509,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,7 +901,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,7 +937,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -947,7 +954,7 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -964,7 +971,7 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -981,7 +988,7 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -998,7 +1005,7 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -1062,13 +1069,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1248,13 +1255,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1417,13 +1424,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1443,7 +1450,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1479,7 +1486,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1496,7 +1503,7 @@
       <c r="B3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
@@ -1513,7 +1520,7 @@
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
@@ -1530,7 +1537,7 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
@@ -1547,7 +1554,7 @@
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1561,7 +1568,7 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1578,7 +1585,7 @@
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1634,13 +1641,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CloudKitchen-artifacts/Routes.xlsx
+++ b/CloudKitchen-artifacts/Routes.xlsx
@@ -716,7 +716,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
@@ -911,10 +911,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
@@ -998,7 +998,7 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -1136,10 +1136,10 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
@@ -1223,7 +1223,7 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -1312,7 +1312,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>

--- a/CloudKitchen-artifacts/Routes.xlsx
+++ b/CloudKitchen-artifacts/Routes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project Artifacts- Project Cloud Kitchen\CloudKitchen\CloudKitchen-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430E408-DB22-4C66-AFC0-3DF754AA389F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F832F5B-9FA0-475F-B86F-9A67A9053A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19260" yWindow="2340" windowWidth="16200" windowHeight="9360" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,12 +443,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -462,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -509,13 +503,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,7 +894,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,7 +930,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -954,7 +947,7 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -971,7 +964,7 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -988,7 +981,7 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -1005,7 +998,7 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -1069,13 +1062,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1255,13 +1248,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1424,13 +1417,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1450,7 +1443,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1479,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1503,7 +1496,7 @@
       <c r="B3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
@@ -1520,7 +1513,7 @@
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
@@ -1537,7 +1530,7 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
@@ -1554,7 +1547,7 @@
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1568,7 +1561,7 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1585,7 +1578,7 @@
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1602,7 +1595,7 @@
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D9" t="s">
@@ -1633,7 +1626,7 @@
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="22" t="s">
         <v>104</v>
       </c>
       <c r="D11" t="s">
@@ -1641,13 +1634,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CloudKitchen-artifacts/Routes.xlsx
+++ b/CloudKitchen-artifacts/Routes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project Artifacts- Project Cloud Kitchen\CloudKitchen\CloudKitchen-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F832F5B-9FA0-475F-B86F-9A67A9053A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF3948-C18B-4C3D-BFC4-7F675E42682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
   <si>
     <t>Operation</t>
   </si>
@@ -346,6 +346,18 @@
   </si>
   <si>
     <t xml:space="preserve">to update address for delivery. </t>
+  </si>
+  <si>
+    <t>Get Food Details</t>
+  </si>
+  <si>
+    <t>/getFoodDetails</t>
+  </si>
+  <si>
+    <t>to get food details</t>
+  </si>
+  <si>
+    <t>Custome-place-order</t>
   </si>
 </sst>
 </file>
@@ -456,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -509,6 +521,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,7 +1101,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:I10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1440,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1622,7 @@
       <c r="B10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="23" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1634,17 +1647,34 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E12" s="25" t="s">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E14:I14"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
